--- a/experimental_results/RQ2/rust_uncovered_bugs.xlsx
+++ b/experimental_results/RQ2/rust_uncovered_bugs.xlsx
@@ -1165,7 +1165,7 @@
   <sheetPr/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
